--- a/Matricula.TE/CM/REGITCON (Registro de Items de Configuracion)/REGITCON_V2.0_2017.xlsx
+++ b/Matricula.TE/CM/REGITCON (Registro de Items de Configuracion)/REGITCON_V2.0_2017.xlsx
@@ -990,15 +990,6 @@
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/PGBR%20(Proceso%20de%20Gesti%C3%B3n%20de%20Proyecto)/PGPBR_V2.0_2017.pptx</t>
   </si>
   <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/PPBR%20(Plan%20de%20Proyecto)/PPBR_V2.0_2017.docx</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/CPROY%20(Cronograma%20de%20Proyecto)/CPROY_V2.0_2017.mpp</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/REGRI%20(Registro%20de%20Riesgos)/REGRI_V2.0_2017.xls</t>
-  </si>
-  <si>
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/IAVQUI%20(Informe%20de%20Avance%20Quincenal)/IAVQUI_24_05_2017.xls</t>
   </si>
   <si>
@@ -1044,36 +1035,15 @@
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/PGREQM%20(Proceso)/PGREQM_V2.0_2017.ppt</t>
   </si>
   <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/LMREQM%20(Lista%20Maestra%20de%20Requerimientos)/LMREQM_V1.1_2017.xls</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/MTREQM%20(Matriz%20de%20Trazabilidad)/MTREQM_1.1_2017.xls</t>
-  </si>
-  <si>
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/SOLCREQ%20(Solicitud%20de%20cambio)/SOLCREQ_V1.1_2017.xls</t>
   </si>
   <si>
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/SOLCREQ%20(Solicitud%20de%20cambio)/ASCR_19_07_2017.doc</t>
   </si>
   <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/TMETR%20(Tablero%20de%20Control)/TMETR_V2.0_2017.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMEXRI%20(Ficha%20PP-PMC)/FMEXRI_V2.0_2017.docx</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMVREQM%20(Ficha%20REQM)/FMVREQM_V2.0_2017.docx</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMNCNPRO%20(Ficha%20PPQA)/FMNCONPRO_V2.0_2017.docx</t>
-  </si>
-  <si>
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/CHKQA%20(ChekList)/CHKQA_V2.0_2017.xls</t>
   </si>
   <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/HGQA%20(Herramienta)/HGQA_V2.0_2017.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/MSPQA%20(Matriz%20de%20seguimiento)/MSPQA_V1.0_2017.xlsm</t>
   </si>
   <si>
@@ -1279,12 +1249,6 @@
   </si>
   <si>
     <t>PGC (Proceso)</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMICIC%20(Ficha%20CM)/FMICIC_V1.0_2017.docx</t>
-  </si>
-  <si>
-    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/CM/REGITCON%20(Registro%20de%20Items%20de%20Configuracion)/REGITCON_V1.0_2017.xlsx</t>
   </si>
   <si>
     <t>Analistas Funcional</t>
@@ -1567,6 +1531,42 @@
   </si>
   <si>
     <t>Por Revisar</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/PPBR%20(Plan%20de%20Proyecto)/PPBR_V2.1_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/CPROY%20(Cronograma%20de%20Proyecto)/CPROY_V3.0_2017.mpp</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/REGRI%20(Registro%20de%20Riesgos)/REGRI_V3.0_2017.xls</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/LMREQM%20(Lista%20Maestra%20de%20Requerimientos)/LMREQM_V1.2_2017.xls</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/MTREQM%20(Matriz%20de%20Trazabilidad)/MTREQM_V1.1_2017.xls</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/TMETR%20(Tablero%20de%20Control)/TMETR_V3.0_2017.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMVREQM%20(Ficha%20REQM)/FMVREQM_V3.0_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMEXRI%20(Ficha%20PP-PMC)/FMEXRI_V3.0_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMNCNPRO%20(Ficha%20PPQA)/FMNCONPRO_V3.0_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMICIC%20(Ficha%20CM)/FMICIC_V2.0_2017.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/HGQA%20(Herramienta)/HGQA_V3.0_2017.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/CM/REGITCON%20(Registro%20de%20Items%20de%20Configuracion)/REGITCON_V2.0_2017.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2829,9 +2829,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2848,245 +2845,248 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3104,7 +3104,21 @@
     <cellStyle name="Normal_sst2D" xfId="10"/>
     <cellStyle name="Normal_sstA" xfId="11"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3345,6 +3359,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="10"/>
         </patternFill>
       </fill>
@@ -3353,6 +3395,76 @@
       <fill>
         <patternFill>
           <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="55"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4150,15 +4262,15 @@
       <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="263" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" thickBot="1">
       <c r="B3" s="85"/>
@@ -4193,58 +4305,58 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="260">
+      <c r="B5" s="259">
         <v>1</v>
       </c>
-      <c r="C5" s="260">
+      <c r="C5" s="259">
         <v>1</v>
       </c>
-      <c r="D5" s="262">
+      <c r="D5" s="261">
         <v>42905</v>
       </c>
-      <c r="E5" s="260" t="s">
+      <c r="E5" s="259" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="260" t="s">
+      <c r="F5" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="260" t="s">
+      <c r="G5" s="259" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="260" t="s">
+      <c r="H5" s="259" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="144"/>
-      <c r="B7" s="260">
+      <c r="B7" s="259">
         <v>2</v>
       </c>
-      <c r="C7" s="260">
+      <c r="C7" s="259">
         <v>2</v>
       </c>
-      <c r="D7" s="262">
+      <c r="D7" s="261">
         <v>42909</v>
       </c>
-      <c r="E7" s="260" t="s">
+      <c r="E7" s="259" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="260" t="s">
+      <c r="F7" s="259" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="260" t="s">
+      <c r="G7" s="259" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="260" t="s">
+      <c r="H7" s="259" t="s">
         <v>198</v>
       </c>
       <c r="I7" s="144"/>
@@ -4253,38 +4365,38 @@
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="144"/>
-      <c r="B8" s="261"/>
-      <c r="C8" s="261"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
       <c r="I8" s="144"/>
       <c r="J8" s="145"/>
       <c r="K8" s="145"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="144"/>
-      <c r="B9" s="260">
+      <c r="B9" s="259">
         <v>3</v>
       </c>
-      <c r="C9" s="260">
+      <c r="C9" s="259">
         <v>3</v>
       </c>
-      <c r="D9" s="262">
+      <c r="D9" s="261">
         <v>42935</v>
       </c>
-      <c r="E9" s="260" t="s">
+      <c r="E9" s="259" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="260" t="s">
-        <v>454</v>
-      </c>
-      <c r="G9" s="260" t="s">
-        <v>455</v>
-      </c>
-      <c r="H9" s="260" t="s">
+      <c r="F9" s="259" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="259" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="259" t="s">
         <v>199</v>
       </c>
       <c r="I9" s="144"/>
@@ -4293,13 +4405,13 @@
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="144"/>
-      <c r="B10" s="261"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="261"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
       <c r="I10" s="144"/>
       <c r="J10" s="145"/>
       <c r="K10" s="145"/>
@@ -4358,20 +4470,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -4380,13 +4485,20 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4417,26 +4529,26 @@
     <row r="1" spans="1:7" ht="51" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="17"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="312" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="314"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="286">
+      <c r="C2" s="315">
         <v>42905</v>
       </c>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="317"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
       <c r="A3" s="2"/>
@@ -4450,14 +4562,14 @@
     </row>
     <row r="4" spans="1:7" ht="63.75" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="289" t="s">
+      <c r="B4" s="318" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="291"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="320"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
@@ -4484,12 +4596,12 @@
         <v>48</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="292" t="s">
+      <c r="D7" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="294"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="323"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2"/>
@@ -4505,12 +4617,12 @@
         <v>29</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="319" t="s">
+      <c r="D9" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="297"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
@@ -4527,12 +4639,12 @@
         <v>29</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="319" t="s">
+      <c r="D11" s="297" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="319"/>
-      <c r="F11" s="319"/>
-      <c r="G11" s="319"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
@@ -4549,12 +4661,12 @@
         <v>29</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="319" t="s">
+      <c r="D13" s="297" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
@@ -4571,12 +4683,12 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="319" t="s">
+      <c r="D15" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="319"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="319"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="297"/>
+      <c r="G15" s="297"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
@@ -4606,84 +4718,84 @@
       <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="277" t="s">
+      <c r="B20" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="278"/>
-      <c r="D20" s="278"/>
-      <c r="E20" s="278"/>
-      <c r="F20" s="278"/>
-      <c r="G20" s="279"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="269"/>
     </row>
     <row r="21" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1">
       <c r="B21" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="280" t="s">
+      <c r="C21" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="282"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="272"/>
     </row>
     <row r="22" spans="1:17" s="28" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="321" t="s">
+      <c r="C22" s="299" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="322"/>
-      <c r="E22" s="322"/>
-      <c r="F22" s="322"/>
-      <c r="G22" s="323"/>
+      <c r="D22" s="300"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="301"/>
     </row>
     <row r="23" spans="1:17" s="28" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B23" s="310" t="s">
+      <c r="B23" s="331" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="300" t="s">
+      <c r="C23" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
-      <c r="G23" s="302"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="266"/>
     </row>
     <row r="24" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="311"/>
-      <c r="C24" s="300" t="s">
+      <c r="B24" s="332"/>
+      <c r="C24" s="264" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="302"/>
+      <c r="D24" s="265"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="266"/>
     </row>
     <row r="25" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1">
       <c r="B25" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="300" t="s">
+      <c r="C25" s="264" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
-      <c r="G25" s="302"/>
+      <c r="D25" s="265"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="265"/>
+      <c r="G25" s="266"/>
     </row>
     <row r="26" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1">
       <c r="B26" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="300" t="s">
+      <c r="C26" s="264" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
-      <c r="G26" s="302"/>
+      <c r="D26" s="265"/>
+      <c r="E26" s="265"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="266"/>
     </row>
     <row r="27" spans="1:17" s="28" customFormat="1" ht="25.5" customHeight="1">
       <c r="B27" s="128"/>
@@ -4694,14 +4806,14 @@
       <c r="G27" s="129"/>
     </row>
     <row r="28" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B28" s="277" t="s">
+      <c r="B28" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="278"/>
-      <c r="D28" s="278"/>
-      <c r="E28" s="278"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="279"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="268"/>
+      <c r="G28" s="269"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4714,14 +4826,14 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" s="28" customFormat="1" ht="39" customHeight="1">
-      <c r="B29" s="331" t="s">
+      <c r="B29" s="309" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="333"/>
+      <c r="C29" s="310"/>
+      <c r="D29" s="310"/>
+      <c r="E29" s="310"/>
+      <c r="F29" s="310"/>
+      <c r="G29" s="311"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4735,14 +4847,14 @@
     </row>
     <row r="30" spans="1:17" ht="48.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="312" t="s">
+      <c r="B30" s="333" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="314"/>
+      <c r="C30" s="334"/>
+      <c r="D30" s="334"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="334"/>
+      <c r="G30" s="335"/>
       <c r="H30" s="1"/>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
@@ -4759,21 +4871,21 @@
       <c r="B31" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="306" t="s">
+      <c r="C31" s="327" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="306"/>
-      <c r="E31" s="306"/>
-      <c r="F31" s="306"/>
-      <c r="G31" s="307"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="328"/>
       <c r="H31" s="57"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="320"/>
-      <c r="K31" s="320"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="320"/>
-      <c r="N31" s="320"/>
-      <c r="O31" s="320"/>
+      <c r="I31" s="298"/>
+      <c r="J31" s="298"/>
+      <c r="K31" s="298"/>
+      <c r="L31" s="298"/>
+      <c r="M31" s="298"/>
+      <c r="N31" s="298"/>
+      <c r="O31" s="298"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="1"/>
     </row>
@@ -4801,13 +4913,13 @@
       <c r="B33" s="59">
         <v>1</v>
       </c>
-      <c r="C33" s="324" t="s">
+      <c r="C33" s="302" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="324"/>
-      <c r="F33" s="324"/>
-      <c r="G33" s="325"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="303"/>
       <c r="H33" s="57"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="1"/>
@@ -4827,13 +4939,13 @@
     <row r="35" spans="1:17" ht="19.5" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="60"/>
-      <c r="C35" s="270" t="s">
+      <c r="C35" s="291" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="270"/>
-      <c r="G35" s="271"/>
+      <c r="D35" s="291"/>
+      <c r="E35" s="291"/>
+      <c r="F35" s="291"/>
+      <c r="G35" s="292"/>
       <c r="H35" s="57"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="1"/>
@@ -4843,13 +4955,13 @@
       <c r="B36" s="59">
         <v>1</v>
       </c>
-      <c r="C36" s="324" t="s">
+      <c r="C36" s="302" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="324"/>
-      <c r="E36" s="324"/>
-      <c r="F36" s="324"/>
-      <c r="G36" s="325"/>
+      <c r="D36" s="302"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="303"/>
       <c r="H36" s="57"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="1"/>
@@ -4859,13 +4971,13 @@
       <c r="B37" s="59">
         <v>2</v>
       </c>
-      <c r="C37" s="324" t="s">
+      <c r="C37" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="324"/>
-      <c r="E37" s="324"/>
-      <c r="F37" s="324"/>
-      <c r="G37" s="325"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="303"/>
       <c r="H37" s="57"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="1"/>
@@ -4875,13 +4987,13 @@
       <c r="B38" s="59">
         <v>3</v>
       </c>
-      <c r="C38" s="326" t="s">
+      <c r="C38" s="304" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="326"/>
-      <c r="E38" s="326"/>
-      <c r="F38" s="326"/>
-      <c r="G38" s="327"/>
+      <c r="D38" s="304"/>
+      <c r="E38" s="304"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="305"/>
       <c r="H38" s="11"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4973,10 +5085,10 @@
     <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="106"/>
-      <c r="C45" s="330" t="s">
+      <c r="C45" s="308" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="330"/>
+      <c r="D45" s="308"/>
       <c r="E45" s="111"/>
       <c r="F45" s="111"/>
       <c r="G45" s="112"/>
@@ -4987,27 +5099,27 @@
     <row r="46" spans="1:17" ht="30.75" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="113"/>
-      <c r="C46" s="328" t="s">
+      <c r="C46" s="306" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="328"/>
-      <c r="E46" s="328"/>
-      <c r="F46" s="328"/>
-      <c r="G46" s="329"/>
+      <c r="D46" s="306"/>
+      <c r="E46" s="306"/>
+      <c r="F46" s="306"/>
+      <c r="G46" s="307"/>
       <c r="H46" s="11"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="15.75">
       <c r="A47" s="4"/>
-      <c r="B47" s="315" t="s">
+      <c r="B47" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="316"/>
-      <c r="D47" s="316"/>
-      <c r="E47" s="316"/>
-      <c r="F47" s="316"/>
-      <c r="G47" s="317"/>
+      <c r="C47" s="294"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="294"/>
+      <c r="F47" s="294"/>
+      <c r="G47" s="295"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3"/>
       <c r="J47" s="1"/>
@@ -5036,13 +5148,13 @@
       <c r="B49" s="59">
         <v>1</v>
       </c>
-      <c r="C49" s="308" t="s">
+      <c r="C49" s="329" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="308"/>
-      <c r="E49" s="308"/>
-      <c r="F49" s="308"/>
-      <c r="G49" s="309"/>
+      <c r="D49" s="329"/>
+      <c r="E49" s="329"/>
+      <c r="F49" s="329"/>
+      <c r="G49" s="330"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="9"/>
@@ -5174,8 +5286,8 @@
       <c r="F55" s="66"/>
       <c r="G55" s="67"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="318"/>
-      <c r="J55" s="318"/>
+      <c r="I55" s="296"/>
+      <c r="J55" s="296"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -5195,8 +5307,8 @@
       <c r="F56" s="116"/>
       <c r="G56" s="117"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="318"/>
-      <c r="J56" s="318"/>
+      <c r="I56" s="296"/>
+      <c r="J56" s="296"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -5216,8 +5328,8 @@
       <c r="F57" s="116"/>
       <c r="G57" s="117"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="318"/>
-      <c r="J57" s="318"/>
+      <c r="I57" s="296"/>
+      <c r="J57" s="296"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -5237,8 +5349,8 @@
       <c r="F58" s="116"/>
       <c r="G58" s="117"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="318"/>
-      <c r="J58" s="318"/>
+      <c r="I58" s="296"/>
+      <c r="J58" s="296"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -5258,8 +5370,8 @@
       <c r="F59" s="116"/>
       <c r="G59" s="117"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="318"/>
-      <c r="J59" s="318"/>
+      <c r="I59" s="296"/>
+      <c r="J59" s="296"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -5279,8 +5391,8 @@
       <c r="F60" s="83"/>
       <c r="G60" s="84"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="318"/>
-      <c r="J60" s="318"/>
+      <c r="I60" s="296"/>
+      <c r="J60" s="296"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -5302,8 +5414,8 @@
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="318"/>
-      <c r="J61" s="318"/>
+      <c r="I61" s="296"/>
+      <c r="J61" s="296"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5333,14 +5445,14 @@
     </row>
     <row r="63" spans="1:17" ht="15.75">
       <c r="A63" s="4"/>
-      <c r="B63" s="315" t="s">
+      <c r="B63" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="316"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="316"/>
-      <c r="F63" s="316"/>
-      <c r="G63" s="317"/>
+      <c r="C63" s="294"/>
+      <c r="D63" s="294"/>
+      <c r="E63" s="294"/>
+      <c r="F63" s="294"/>
+      <c r="G63" s="295"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3"/>
       <c r="J63" s="1"/>
@@ -5376,13 +5488,13 @@
       <c r="B65" s="59">
         <v>1</v>
       </c>
-      <c r="C65" s="270" t="s">
+      <c r="C65" s="291" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="270"/>
-      <c r="E65" s="270"/>
-      <c r="F65" s="270"/>
-      <c r="G65" s="271"/>
+      <c r="D65" s="291"/>
+      <c r="E65" s="291"/>
+      <c r="F65" s="291"/>
+      <c r="G65" s="292"/>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -5399,13 +5511,13 @@
       <c r="B66" s="59">
         <v>2</v>
       </c>
-      <c r="C66" s="270" t="s">
+      <c r="C66" s="291" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="270"/>
-      <c r="E66" s="270"/>
-      <c r="F66" s="270"/>
-      <c r="G66" s="271"/>
+      <c r="D66" s="291"/>
+      <c r="E66" s="291"/>
+      <c r="F66" s="291"/>
+      <c r="G66" s="292"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -5422,13 +5534,13 @@
       <c r="B67" s="59">
         <v>3</v>
       </c>
-      <c r="C67" s="270" t="s">
+      <c r="C67" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="270"/>
-      <c r="E67" s="270"/>
-      <c r="F67" s="270"/>
-      <c r="G67" s="271"/>
+      <c r="D67" s="291"/>
+      <c r="E67" s="291"/>
+      <c r="F67" s="291"/>
+      <c r="G67" s="292"/>
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57"/>
@@ -5441,11 +5553,11 @@
     <row r="68" spans="1:17" ht="14.25" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="59"/>
-      <c r="C68" s="270"/>
-      <c r="D68" s="270"/>
-      <c r="E68" s="270"/>
-      <c r="F68" s="270"/>
-      <c r="G68" s="271"/>
+      <c r="C68" s="291"/>
+      <c r="D68" s="291"/>
+      <c r="E68" s="291"/>
+      <c r="F68" s="291"/>
+      <c r="G68" s="292"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57"/>
@@ -5477,39 +5589,39 @@
       <c r="B70" s="23"/>
     </row>
     <row r="71" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B71" s="277" t="s">
+      <c r="B71" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="278"/>
-      <c r="D71" s="278"/>
-      <c r="E71" s="278"/>
-      <c r="F71" s="278"/>
-      <c r="G71" s="279"/>
+      <c r="C71" s="268"/>
+      <c r="D71" s="268"/>
+      <c r="E71" s="268"/>
+      <c r="F71" s="268"/>
+      <c r="G71" s="269"/>
     </row>
     <row r="72" spans="1:17" s="28" customFormat="1" ht="13.5" customHeight="1">
       <c r="B72" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="280" t="s">
+      <c r="C72" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="281"/>
-      <c r="E72" s="281"/>
-      <c r="F72" s="281"/>
-      <c r="G72" s="282"/>
+      <c r="D72" s="271"/>
+      <c r="E72" s="271"/>
+      <c r="F72" s="271"/>
+      <c r="G72" s="272"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="4"/>
       <c r="B73" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="303" t="s">
+      <c r="C73" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="304"/>
-      <c r="E73" s="304"/>
-      <c r="F73" s="304"/>
-      <c r="G73" s="305"/>
+      <c r="D73" s="289"/>
+      <c r="E73" s="289"/>
+      <c r="F73" s="289"/>
+      <c r="G73" s="290"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="4"/>
@@ -5549,56 +5661,56 @@
       <c r="B77" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="274" t="s">
+      <c r="C77" s="285" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="275"/>
-      <c r="E77" s="275"/>
-      <c r="F77" s="275"/>
-      <c r="G77" s="276"/>
+      <c r="D77" s="286"/>
+      <c r="E77" s="286"/>
+      <c r="F77" s="286"/>
+      <c r="G77" s="287"/>
     </row>
     <row r="78" spans="1:17" ht="15.95" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="274" t="s">
+      <c r="C78" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="275"/>
-      <c r="E78" s="275"/>
-      <c r="F78" s="275"/>
-      <c r="G78" s="276"/>
+      <c r="D78" s="286"/>
+      <c r="E78" s="286"/>
+      <c r="F78" s="286"/>
+      <c r="G78" s="287"/>
     </row>
     <row r="79" spans="1:17" ht="15.95" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="303" t="s">
+      <c r="C79" s="288" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="304"/>
-      <c r="E79" s="304"/>
-      <c r="F79" s="304"/>
-      <c r="G79" s="305"/>
+      <c r="D79" s="289"/>
+      <c r="E79" s="289"/>
+      <c r="F79" s="289"/>
+      <c r="G79" s="290"/>
     </row>
     <row r="80" spans="1:17" ht="15.95" customHeight="1">
       <c r="A80" s="4"/>
-      <c r="B80" s="334" t="s">
+      <c r="B80" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="303" t="s">
+      <c r="C80" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="304"/>
-      <c r="E80" s="304"/>
-      <c r="F80" s="304"/>
-      <c r="G80" s="305"/>
+      <c r="D80" s="289"/>
+      <c r="E80" s="289"/>
+      <c r="F80" s="289"/>
+      <c r="G80" s="290"/>
     </row>
     <row r="81" spans="1:7" ht="15.95" customHeight="1">
       <c r="A81" s="4"/>
-      <c r="B81" s="335"/>
+      <c r="B81" s="274"/>
       <c r="C81" s="90" t="s">
         <v>75</v>
       </c>
@@ -5611,7 +5723,7 @@
     </row>
     <row r="82" spans="1:7" ht="15.95" customHeight="1">
       <c r="A82" s="4"/>
-      <c r="B82" s="335"/>
+      <c r="B82" s="274"/>
       <c r="C82" s="90" t="s">
         <v>63</v>
       </c>
@@ -5624,7 +5736,7 @@
     </row>
     <row r="83" spans="1:7" ht="15.95" customHeight="1">
       <c r="A83" s="4"/>
-      <c r="B83" s="335"/>
+      <c r="B83" s="274"/>
       <c r="C83" s="90" t="s">
         <v>64</v>
       </c>
@@ -5637,7 +5749,7 @@
     </row>
     <row r="84" spans="1:7" ht="15.95" customHeight="1">
       <c r="A84" s="4"/>
-      <c r="B84" s="335"/>
+      <c r="B84" s="274"/>
       <c r="C84" s="90" t="s">
         <v>34</v>
       </c>
@@ -5650,7 +5762,7 @@
     </row>
     <row r="85" spans="1:7" ht="15.95" customHeight="1">
       <c r="A85" s="4"/>
-      <c r="B85" s="336"/>
+      <c r="B85" s="275"/>
       <c r="C85" s="92"/>
       <c r="D85" s="93"/>
       <c r="E85" s="50"/>
@@ -5662,182 +5774,182 @@
       <c r="B86" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="339" t="s">
+      <c r="C86" s="280" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="337"/>
-      <c r="E86" s="337"/>
-      <c r="F86" s="337"/>
-      <c r="G86" s="338"/>
+      <c r="D86" s="276"/>
+      <c r="E86" s="276"/>
+      <c r="F86" s="276"/>
+      <c r="G86" s="277"/>
     </row>
     <row r="87" spans="1:7" ht="15.95" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="340" t="s">
+      <c r="C87" s="281" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="298"/>
-      <c r="E87" s="298"/>
-      <c r="F87" s="298"/>
-      <c r="G87" s="299"/>
+      <c r="D87" s="278"/>
+      <c r="E87" s="278"/>
+      <c r="F87" s="278"/>
+      <c r="G87" s="279"/>
     </row>
     <row r="88" spans="1:7" ht="15.95" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="341" t="s">
+      <c r="C88" s="282" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="342"/>
-      <c r="E88" s="342"/>
-      <c r="F88" s="342"/>
-      <c r="G88" s="343"/>
+      <c r="D88" s="283"/>
+      <c r="E88" s="283"/>
+      <c r="F88" s="283"/>
+      <c r="G88" s="284"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4"/>
       <c r="B89" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="298" t="s">
+      <c r="C89" s="278" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="298"/>
-      <c r="E89" s="298"/>
-      <c r="F89" s="298"/>
-      <c r="G89" s="299"/>
+      <c r="D89" s="278"/>
+      <c r="E89" s="278"/>
+      <c r="F89" s="278"/>
+      <c r="G89" s="279"/>
     </row>
     <row r="90" spans="1:7" ht="12.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="298" t="s">
+      <c r="C90" s="278" t="s">
         <v>94</v>
       </c>
-      <c r="D90" s="298"/>
-      <c r="E90" s="298"/>
-      <c r="F90" s="298"/>
-      <c r="G90" s="299"/>
+      <c r="D90" s="278"/>
+      <c r="E90" s="278"/>
+      <c r="F90" s="278"/>
+      <c r="G90" s="279"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="337" t="s">
+      <c r="C91" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="337"/>
-      <c r="E91" s="337"/>
-      <c r="F91" s="337"/>
-      <c r="G91" s="338"/>
+      <c r="D91" s="276"/>
+      <c r="E91" s="276"/>
+      <c r="F91" s="276"/>
+      <c r="G91" s="277"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4"/>
       <c r="B92" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="298" t="s">
+      <c r="C92" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="298"/>
-      <c r="E92" s="298"/>
-      <c r="F92" s="298"/>
-      <c r="G92" s="299"/>
+      <c r="D92" s="278"/>
+      <c r="E92" s="278"/>
+      <c r="F92" s="278"/>
+      <c r="G92" s="279"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4"/>
       <c r="B93" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="298" t="s">
+      <c r="C93" s="278" t="s">
         <v>93</v>
       </c>
-      <c r="D93" s="298"/>
-      <c r="E93" s="298"/>
-      <c r="F93" s="298"/>
-      <c r="G93" s="299"/>
+      <c r="D93" s="278"/>
+      <c r="E93" s="278"/>
+      <c r="F93" s="278"/>
+      <c r="G93" s="279"/>
     </row>
     <row r="94" spans="1:7" ht="12.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="298" t="s">
+      <c r="C94" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="D94" s="298"/>
-      <c r="E94" s="298"/>
-      <c r="F94" s="298"/>
-      <c r="G94" s="299"/>
+      <c r="D94" s="278"/>
+      <c r="E94" s="278"/>
+      <c r="F94" s="278"/>
+      <c r="G94" s="279"/>
     </row>
     <row r="95" spans="1:7" ht="24">
       <c r="A95" s="4"/>
       <c r="B95" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="298" t="s">
+      <c r="C95" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="298"/>
-      <c r="E95" s="298"/>
-      <c r="F95" s="298"/>
-      <c r="G95" s="299"/>
+      <c r="D95" s="278"/>
+      <c r="E95" s="278"/>
+      <c r="F95" s="278"/>
+      <c r="G95" s="279"/>
     </row>
     <row r="96" spans="1:7" ht="24">
       <c r="A96" s="4"/>
       <c r="B96" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="298" t="s">
+      <c r="C96" s="278" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="298"/>
-      <c r="E96" s="298"/>
-      <c r="F96" s="298"/>
-      <c r="G96" s="299"/>
+      <c r="D96" s="278"/>
+      <c r="E96" s="278"/>
+      <c r="F96" s="278"/>
+      <c r="G96" s="279"/>
     </row>
     <row r="97" spans="1:7" ht="24">
       <c r="A97" s="4"/>
       <c r="B97" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="298" t="s">
+      <c r="C97" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="298"/>
-      <c r="E97" s="298"/>
-      <c r="F97" s="298"/>
-      <c r="G97" s="299"/>
+      <c r="D97" s="278"/>
+      <c r="E97" s="278"/>
+      <c r="F97" s="278"/>
+      <c r="G97" s="279"/>
     </row>
     <row r="98" spans="1:7" ht="24">
       <c r="A98" s="4"/>
       <c r="B98" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="298" t="s">
+      <c r="C98" s="278" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="298"/>
-      <c r="E98" s="298"/>
-      <c r="F98" s="298"/>
-      <c r="G98" s="299"/>
+      <c r="D98" s="278"/>
+      <c r="E98" s="278"/>
+      <c r="F98" s="278"/>
+      <c r="G98" s="279"/>
     </row>
     <row r="99" spans="1:7" ht="37.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="295" t="s">
+      <c r="C99" s="324" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="296"/>
-      <c r="E99" s="296"/>
-      <c r="F99" s="296"/>
-      <c r="G99" s="297"/>
+      <c r="D99" s="325"/>
+      <c r="E99" s="325"/>
+      <c r="F99" s="325"/>
+      <c r="G99" s="326"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4"/>
@@ -5880,62 +5992,62 @@
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="277" t="s">
+      <c r="B104" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="278"/>
-      <c r="D104" s="278"/>
-      <c r="E104" s="278"/>
-      <c r="F104" s="278"/>
-      <c r="G104" s="279"/>
+      <c r="C104" s="268"/>
+      <c r="D104" s="268"/>
+      <c r="E104" s="268"/>
+      <c r="F104" s="268"/>
+      <c r="G104" s="269"/>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="280" t="s">
+      <c r="C105" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="281"/>
-      <c r="E105" s="281"/>
-      <c r="F105" s="281"/>
-      <c r="G105" s="282"/>
+      <c r="D105" s="271"/>
+      <c r="E105" s="271"/>
+      <c r="F105" s="271"/>
+      <c r="G105" s="272"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="272" t="s">
+      <c r="C106" s="338" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="272"/>
-      <c r="E106" s="272"/>
-      <c r="F106" s="272"/>
-      <c r="G106" s="272"/>
+      <c r="D106" s="338"/>
+      <c r="E106" s="338"/>
+      <c r="F106" s="338"/>
+      <c r="G106" s="338"/>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="274" t="s">
+      <c r="C107" s="285" t="s">
         <v>135</v>
       </c>
-      <c r="D107" s="275"/>
-      <c r="E107" s="275"/>
-      <c r="F107" s="275"/>
-      <c r="G107" s="276"/>
+      <c r="D107" s="286"/>
+      <c r="E107" s="286"/>
+      <c r="F107" s="286"/>
+      <c r="G107" s="287"/>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="99"/>
-      <c r="C108" s="274"/>
-      <c r="D108" s="275"/>
-      <c r="E108" s="275"/>
-      <c r="F108" s="275"/>
-      <c r="G108" s="276"/>
+      <c r="C108" s="285"/>
+      <c r="D108" s="286"/>
+      <c r="E108" s="286"/>
+      <c r="F108" s="286"/>
+      <c r="G108" s="287"/>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1">
       <c r="A109" s="6"/>
@@ -5948,62 +6060,62 @@
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1">
       <c r="A110" s="6"/>
-      <c r="B110" s="277" t="s">
+      <c r="B110" s="267" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="278"/>
-      <c r="D110" s="278"/>
-      <c r="E110" s="278"/>
-      <c r="F110" s="278"/>
-      <c r="G110" s="279"/>
+      <c r="C110" s="268"/>
+      <c r="D110" s="268"/>
+      <c r="E110" s="268"/>
+      <c r="F110" s="268"/>
+      <c r="G110" s="269"/>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="280" t="s">
+      <c r="C111" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="281"/>
-      <c r="E111" s="281"/>
-      <c r="F111" s="281"/>
-      <c r="G111" s="282"/>
+      <c r="D111" s="271"/>
+      <c r="E111" s="271"/>
+      <c r="F111" s="271"/>
+      <c r="G111" s="272"/>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="272" t="s">
+      <c r="C112" s="338" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="272"/>
-      <c r="E112" s="272"/>
-      <c r="F112" s="272"/>
-      <c r="G112" s="272"/>
+      <c r="D112" s="338"/>
+      <c r="E112" s="338"/>
+      <c r="F112" s="338"/>
+      <c r="G112" s="338"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="C113" s="274" t="s">
+      <c r="C113" s="285" t="s">
         <v>137</v>
       </c>
-      <c r="D113" s="275"/>
-      <c r="E113" s="275"/>
-      <c r="F113" s="275"/>
-      <c r="G113" s="276"/>
+      <c r="D113" s="286"/>
+      <c r="E113" s="286"/>
+      <c r="F113" s="286"/>
+      <c r="G113" s="287"/>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="99"/>
-      <c r="C114" s="272"/>
-      <c r="D114" s="272"/>
-      <c r="E114" s="272"/>
-      <c r="F114" s="272"/>
-      <c r="G114" s="272"/>
+      <c r="C114" s="338"/>
+      <c r="D114" s="338"/>
+      <c r="E114" s="338"/>
+      <c r="F114" s="338"/>
+      <c r="G114" s="338"/>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1">
       <c r="A115" s="6"/>
@@ -6241,12 +6353,12 @@
     </row>
     <row r="141" spans="1:7" ht="30.75" customHeight="1">
       <c r="A141" s="26"/>
-      <c r="B141" s="273"/>
-      <c r="C141" s="273"/>
-      <c r="D141" s="273"/>
-      <c r="E141" s="273"/>
-      <c r="F141" s="273"/>
-      <c r="G141" s="273"/>
+      <c r="B141" s="339"/>
+      <c r="C141" s="339"/>
+      <c r="D141" s="339"/>
+      <c r="E141" s="339"/>
+      <c r="F141" s="339"/>
+      <c r="G141" s="339"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="26"/>
@@ -6260,11 +6372,11 @@
     <row r="143" spans="1:7">
       <c r="A143" s="26"/>
       <c r="B143" s="43"/>
-      <c r="C143" s="264"/>
-      <c r="D143" s="264"/>
-      <c r="E143" s="264"/>
-      <c r="F143" s="264"/>
-      <c r="G143" s="264"/>
+      <c r="C143" s="336"/>
+      <c r="D143" s="336"/>
+      <c r="E143" s="336"/>
+      <c r="F143" s="336"/>
+      <c r="G143" s="336"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="26"/>
@@ -6278,11 +6390,11 @@
     <row r="145" spans="1:7" ht="49.5" customHeight="1">
       <c r="A145" s="26"/>
       <c r="B145" s="45"/>
-      <c r="C145" s="268"/>
-      <c r="D145" s="268"/>
-      <c r="E145" s="268"/>
-      <c r="F145" s="268"/>
-      <c r="G145" s="268"/>
+      <c r="C145" s="337"/>
+      <c r="D145" s="337"/>
+      <c r="E145" s="337"/>
+      <c r="F145" s="337"/>
+      <c r="G145" s="337"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="26"/>
@@ -6296,11 +6408,11 @@
     <row r="147" spans="1:7">
       <c r="A147" s="26"/>
       <c r="B147" s="43"/>
-      <c r="C147" s="264"/>
-      <c r="D147" s="264"/>
-      <c r="E147" s="264"/>
-      <c r="F147" s="264"/>
-      <c r="G147" s="264"/>
+      <c r="C147" s="336"/>
+      <c r="D147" s="336"/>
+      <c r="E147" s="336"/>
+      <c r="F147" s="336"/>
+      <c r="G147" s="336"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="26"/>
@@ -6314,11 +6426,11 @@
     <row r="149" spans="1:7" ht="78.75" customHeight="1">
       <c r="A149" s="26"/>
       <c r="B149" s="45"/>
-      <c r="C149" s="268"/>
-      <c r="D149" s="268"/>
-      <c r="E149" s="268"/>
-      <c r="F149" s="268"/>
-      <c r="G149" s="268"/>
+      <c r="C149" s="337"/>
+      <c r="D149" s="337"/>
+      <c r="E149" s="337"/>
+      <c r="F149" s="337"/>
+      <c r="G149" s="337"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="26"/>
@@ -6341,11 +6453,11 @@
     <row r="152" spans="1:7">
       <c r="A152" s="26"/>
       <c r="B152" s="43"/>
-      <c r="C152" s="264"/>
-      <c r="D152" s="264"/>
-      <c r="E152" s="264"/>
-      <c r="F152" s="264"/>
-      <c r="G152" s="264"/>
+      <c r="C152" s="336"/>
+      <c r="D152" s="336"/>
+      <c r="E152" s="336"/>
+      <c r="F152" s="336"/>
+      <c r="G152" s="336"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="26"/>
@@ -6359,35 +6471,35 @@
     <row r="154" spans="1:7" ht="58.5" customHeight="1">
       <c r="A154" s="26"/>
       <c r="B154" s="45"/>
-      <c r="C154" s="268"/>
-      <c r="D154" s="268"/>
-      <c r="E154" s="268"/>
-      <c r="F154" s="268"/>
-      <c r="G154" s="268"/>
+      <c r="C154" s="337"/>
+      <c r="D154" s="337"/>
+      <c r="E154" s="337"/>
+      <c r="F154" s="337"/>
+      <c r="G154" s="337"/>
     </row>
     <row r="155" spans="1:7" ht="90" customHeight="1">
       <c r="A155" s="26"/>
       <c r="B155" s="45"/>
-      <c r="C155" s="268"/>
-      <c r="D155" s="268"/>
-      <c r="E155" s="268"/>
-      <c r="F155" s="268"/>
-      <c r="G155" s="268"/>
+      <c r="C155" s="337"/>
+      <c r="D155" s="337"/>
+      <c r="E155" s="337"/>
+      <c r="F155" s="337"/>
+      <c r="G155" s="337"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="26"/>
       <c r="B156" s="45"/>
-      <c r="C156" s="269"/>
-      <c r="D156" s="269"/>
-      <c r="E156" s="269"/>
-      <c r="F156" s="269"/>
-      <c r="G156" s="269"/>
+      <c r="C156" s="342"/>
+      <c r="D156" s="342"/>
+      <c r="E156" s="342"/>
+      <c r="F156" s="342"/>
+      <c r="G156" s="342"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="26"/>
       <c r="B157" s="47"/>
-      <c r="C157" s="265"/>
-      <c r="D157" s="265"/>
+      <c r="C157" s="341"/>
+      <c r="D157" s="341"/>
       <c r="E157" s="48"/>
       <c r="F157" s="48"/>
       <c r="G157" s="35"/>
@@ -6395,8 +6507,8 @@
     <row r="158" spans="1:7">
       <c r="A158" s="26"/>
       <c r="B158" s="47"/>
-      <c r="C158" s="265"/>
-      <c r="D158" s="265"/>
+      <c r="C158" s="341"/>
+      <c r="D158" s="341"/>
       <c r="E158" s="48"/>
       <c r="F158" s="48"/>
       <c r="G158" s="35"/>
@@ -6404,8 +6516,8 @@
     <row r="159" spans="1:7">
       <c r="A159" s="26"/>
       <c r="B159" s="47"/>
-      <c r="C159" s="265"/>
-      <c r="D159" s="265"/>
+      <c r="C159" s="341"/>
+      <c r="D159" s="341"/>
       <c r="E159" s="48"/>
       <c r="F159" s="48"/>
       <c r="G159" s="35"/>
@@ -6413,8 +6525,8 @@
     <row r="160" spans="1:7">
       <c r="A160" s="26"/>
       <c r="B160" s="47"/>
-      <c r="C160" s="265"/>
-      <c r="D160" s="265"/>
+      <c r="C160" s="341"/>
+      <c r="D160" s="341"/>
       <c r="E160" s="48"/>
       <c r="F160" s="48"/>
       <c r="G160" s="35"/>
@@ -6422,8 +6534,8 @@
     <row r="161" spans="1:7">
       <c r="A161" s="26"/>
       <c r="B161" s="47"/>
-      <c r="C161" s="265"/>
-      <c r="D161" s="265"/>
+      <c r="C161" s="341"/>
+      <c r="D161" s="341"/>
       <c r="E161" s="48"/>
       <c r="F161" s="48"/>
       <c r="G161" s="35"/>
@@ -6431,8 +6543,8 @@
     <row r="162" spans="1:7">
       <c r="A162" s="26"/>
       <c r="B162" s="47"/>
-      <c r="C162" s="265"/>
-      <c r="D162" s="265"/>
+      <c r="C162" s="341"/>
+      <c r="D162" s="341"/>
       <c r="E162" s="48"/>
       <c r="F162" s="48"/>
       <c r="G162" s="35"/>
@@ -6440,8 +6552,8 @@
     <row r="163" spans="1:7">
       <c r="A163" s="26"/>
       <c r="B163" s="47"/>
-      <c r="C163" s="265"/>
-      <c r="D163" s="265"/>
+      <c r="C163" s="341"/>
+      <c r="D163" s="341"/>
       <c r="E163" s="48"/>
       <c r="F163" s="48"/>
       <c r="G163" s="49"/>
@@ -6449,8 +6561,8 @@
     <row r="164" spans="1:7">
       <c r="A164" s="26"/>
       <c r="B164" s="47"/>
-      <c r="C164" s="265"/>
-      <c r="D164" s="265"/>
+      <c r="C164" s="341"/>
+      <c r="D164" s="341"/>
       <c r="E164" s="48"/>
       <c r="F164" s="48"/>
       <c r="G164" s="49"/>
@@ -6458,8 +6570,8 @@
     <row r="165" spans="1:7">
       <c r="A165" s="26"/>
       <c r="B165" s="47"/>
-      <c r="C165" s="265"/>
-      <c r="D165" s="265"/>
+      <c r="C165" s="341"/>
+      <c r="D165" s="341"/>
       <c r="E165" s="48"/>
       <c r="F165" s="48"/>
       <c r="G165" s="49"/>
@@ -6467,8 +6579,8 @@
     <row r="166" spans="1:7">
       <c r="A166" s="26"/>
       <c r="B166" s="47"/>
-      <c r="C166" s="265"/>
-      <c r="D166" s="265"/>
+      <c r="C166" s="341"/>
+      <c r="D166" s="341"/>
       <c r="E166" s="48"/>
       <c r="F166" s="48"/>
       <c r="G166" s="49"/>
@@ -6476,11 +6588,11 @@
     <row r="167" spans="1:7" ht="26.25" customHeight="1">
       <c r="A167" s="26"/>
       <c r="B167" s="47"/>
-      <c r="C167" s="267"/>
-      <c r="D167" s="267"/>
-      <c r="E167" s="267"/>
-      <c r="F167" s="267"/>
-      <c r="G167" s="267"/>
+      <c r="C167" s="340"/>
+      <c r="D167" s="340"/>
+      <c r="E167" s="340"/>
+      <c r="F167" s="340"/>
+      <c r="G167" s="340"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="26"/>
@@ -6538,8 +6650,8 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="26"/>
-      <c r="B174" s="265"/>
-      <c r="C174" s="265"/>
+      <c r="B174" s="341"/>
+      <c r="C174" s="341"/>
       <c r="D174" s="26"/>
       <c r="E174" s="26"/>
       <c r="F174" s="26"/>
@@ -6547,8 +6659,8 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="26"/>
-      <c r="B175" s="265"/>
-      <c r="C175" s="265"/>
+      <c r="B175" s="341"/>
+      <c r="C175" s="341"/>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
       <c r="F175" s="26"/>
@@ -6556,8 +6668,8 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="26"/>
-      <c r="B176" s="265"/>
-      <c r="C176" s="265"/>
+      <c r="B176" s="341"/>
+      <c r="C176" s="341"/>
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
       <c r="F176" s="26"/>
@@ -6565,8 +6677,8 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="26"/>
-      <c r="B177" s="265"/>
-      <c r="C177" s="265"/>
+      <c r="B177" s="341"/>
+      <c r="C177" s="341"/>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -6574,8 +6686,8 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="26"/>
-      <c r="B178" s="265"/>
-      <c r="C178" s="265"/>
+      <c r="B178" s="341"/>
+      <c r="C178" s="341"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
@@ -6583,8 +6695,8 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="26"/>
-      <c r="B179" s="265"/>
-      <c r="C179" s="265"/>
+      <c r="B179" s="341"/>
+      <c r="C179" s="341"/>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
@@ -6592,8 +6704,8 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="26"/>
-      <c r="B180" s="265"/>
-      <c r="C180" s="265"/>
+      <c r="B180" s="341"/>
+      <c r="C180" s="341"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
       <c r="F180" s="26"/>
@@ -6601,8 +6713,8 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="26"/>
-      <c r="B181" s="265"/>
-      <c r="C181" s="265"/>
+      <c r="B181" s="341"/>
+      <c r="C181" s="341"/>
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
       <c r="F181" s="26"/>
@@ -6610,8 +6722,8 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="26"/>
-      <c r="B182" s="265"/>
-      <c r="C182" s="265"/>
+      <c r="B182" s="341"/>
+      <c r="C182" s="341"/>
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
       <c r="F182" s="26"/>
@@ -6619,8 +6731,8 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26"/>
-      <c r="B183" s="265"/>
-      <c r="C183" s="265"/>
+      <c r="B183" s="341"/>
+      <c r="C183" s="341"/>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
       <c r="F183" s="26"/>
@@ -6628,8 +6740,8 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="26"/>
-      <c r="B184" s="265"/>
-      <c r="C184" s="265"/>
+      <c r="B184" s="341"/>
+      <c r="C184" s="341"/>
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
       <c r="F184" s="26"/>
@@ -6637,8 +6749,8 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="26"/>
-      <c r="B185" s="265"/>
-      <c r="C185" s="265"/>
+      <c r="B185" s="341"/>
+      <c r="C185" s="341"/>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
       <c r="F185" s="26"/>
@@ -6655,21 +6767,21 @@
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1">
       <c r="A187" s="45"/>
-      <c r="B187" s="264"/>
-      <c r="C187" s="264"/>
-      <c r="D187" s="264"/>
-      <c r="E187" s="264"/>
-      <c r="F187" s="264"/>
-      <c r="G187" s="264"/>
+      <c r="B187" s="336"/>
+      <c r="C187" s="336"/>
+      <c r="D187" s="336"/>
+      <c r="E187" s="336"/>
+      <c r="F187" s="336"/>
+      <c r="G187" s="336"/>
     </row>
     <row r="188" spans="1:7" ht="32.25" customHeight="1">
       <c r="A188" s="45"/>
-      <c r="B188" s="264"/>
-      <c r="C188" s="264"/>
-      <c r="D188" s="264"/>
-      <c r="E188" s="264"/>
-      <c r="F188" s="264"/>
-      <c r="G188" s="264"/>
+      <c r="B188" s="336"/>
+      <c r="C188" s="336"/>
+      <c r="D188" s="336"/>
+      <c r="E188" s="336"/>
+      <c r="F188" s="336"/>
+      <c r="G188" s="336"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="26"/>
@@ -6700,59 +6812,113 @@
     </row>
     <row r="192" spans="1:7" ht="32.25" customHeight="1">
       <c r="A192" s="45"/>
-      <c r="B192" s="266"/>
-      <c r="C192" s="266"/>
-      <c r="D192" s="266"/>
-      <c r="E192" s="266"/>
-      <c r="F192" s="266"/>
-      <c r="G192" s="266"/>
+      <c r="B192" s="343"/>
+      <c r="C192" s="343"/>
+      <c r="D192" s="343"/>
+      <c r="E192" s="343"/>
+      <c r="F192" s="343"/>
+      <c r="G192" s="343"/>
     </row>
     <row r="193" spans="1:7" ht="17.25" customHeight="1">
       <c r="A193" s="45"/>
-      <c r="B193" s="266"/>
-      <c r="C193" s="266"/>
-      <c r="D193" s="266"/>
-      <c r="E193" s="266"/>
-      <c r="F193" s="266"/>
-      <c r="G193" s="266"/>
+      <c r="B193" s="343"/>
+      <c r="C193" s="343"/>
+      <c r="D193" s="343"/>
+      <c r="E193" s="343"/>
+      <c r="F193" s="343"/>
+      <c r="G193" s="343"/>
     </row>
     <row r="194" spans="1:7" ht="18" customHeight="1">
       <c r="A194" s="45"/>
-      <c r="B194" s="266"/>
-      <c r="C194" s="266"/>
-      <c r="D194" s="266"/>
-      <c r="E194" s="266"/>
-      <c r="F194" s="266"/>
-      <c r="G194" s="266"/>
+      <c r="B194" s="343"/>
+      <c r="C194" s="343"/>
+      <c r="D194" s="343"/>
+      <c r="E194" s="343"/>
+      <c r="F194" s="343"/>
+      <c r="G194" s="343"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="45"/>
-      <c r="B195" s="266"/>
-      <c r="C195" s="266"/>
-      <c r="D195" s="266"/>
-      <c r="E195" s="266"/>
-      <c r="F195" s="266"/>
-      <c r="G195" s="266"/>
+      <c r="B195" s="343"/>
+      <c r="C195" s="343"/>
+      <c r="D195" s="343"/>
+      <c r="E195" s="343"/>
+      <c r="F195" s="343"/>
+      <c r="G195" s="343"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D11:G11"/>
@@ -6777,77 +6943,23 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6865,8 +6977,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:IQQ1048574"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6985,22 +7097,22 @@
       <c r="H2" s="172"/>
       <c r="I2" s="173"/>
       <c r="J2" s="161" t="s">
-        <v>274</v>
+        <v>444</v>
       </c>
       <c r="K2" s="192" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L2" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M2" s="192" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N2" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O2" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P2" s="229" t="s">
         <v>167</v>
@@ -7046,22 +7158,22 @@
       <c r="H3" s="174"/>
       <c r="I3" s="173"/>
       <c r="J3" s="161" t="s">
-        <v>275</v>
+        <v>445</v>
       </c>
       <c r="K3" s="192" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L3" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M3" s="192" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N3" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O3" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P3" s="229" t="s">
         <v>167</v>
@@ -7070,7 +7182,7 @@
         <v>145</v>
       </c>
       <c r="R3" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S3" s="229" t="s">
         <v>186</v>
@@ -7110,19 +7222,19 @@
       </c>
       <c r="J4" s="173"/>
       <c r="K4" s="192" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L4" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M4" s="192" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="N4" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O4" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P4" s="229" t="s">
         <v>167</v>
@@ -7131,7 +7243,7 @@
         <v>145</v>
       </c>
       <c r="R4" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S4" s="229" t="s">
         <v>186</v>
@@ -7168,22 +7280,22 @@
       <c r="H5" s="175"/>
       <c r="I5" s="173"/>
       <c r="J5" s="215" t="s">
-        <v>276</v>
+        <v>446</v>
       </c>
       <c r="K5" s="192" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L5" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M5" s="192" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="N5" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O5" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P5" s="229" t="s">
         <v>167</v>
@@ -7192,7 +7304,7 @@
         <v>145</v>
       </c>
       <c r="R5" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S5" s="229" t="s">
         <v>186</v>
@@ -7229,22 +7341,22 @@
       <c r="H6" s="177"/>
       <c r="I6" s="173"/>
       <c r="J6" s="239" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K6" s="197" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L6" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M6" s="197" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N6" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O6" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P6" s="229" t="s">
         <v>167</v>
@@ -7253,7 +7365,7 @@
         <v>145</v>
       </c>
       <c r="R6" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S6" s="229" t="s">
         <v>186</v>
@@ -7273,7 +7385,7 @@
         <v>42935</v>
       </c>
       <c r="C7" s="226" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D7" s="227" t="s">
         <v>184</v>
@@ -7282,30 +7394,30 @@
         <v>34</v>
       </c>
       <c r="F7" s="220" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G7" s="221" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H7" s="228"/>
       <c r="I7" s="173"/>
       <c r="J7" s="244" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K7" s="226" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L7" s="246" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M7" s="226" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N7" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O7" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P7" s="229" t="s">
         <v>167</v>
@@ -7314,7 +7426,7 @@
         <v>145</v>
       </c>
       <c r="R7" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S7" s="229" t="s">
         <v>186</v>
@@ -7334,7 +7446,7 @@
         <v>42935</v>
       </c>
       <c r="C8" s="226" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D8" s="227" t="s">
         <v>184</v>
@@ -7343,30 +7455,30 @@
         <v>34</v>
       </c>
       <c r="F8" s="220" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G8" s="221" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H8" s="228"/>
       <c r="I8" s="173"/>
       <c r="J8" s="244" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K8" s="226" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L8" s="246" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M8" s="226" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N8" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O8" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P8" s="229" t="s">
         <v>167</v>
@@ -7375,7 +7487,7 @@
         <v>145</v>
       </c>
       <c r="R8" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S8" s="229" t="s">
         <v>186</v>
@@ -7395,7 +7507,7 @@
         <v>42935</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D9" s="237" t="s">
         <v>184</v>
@@ -7404,30 +7516,30 @@
         <v>34</v>
       </c>
       <c r="F9" s="238" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G9" s="187" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H9" s="175"/>
       <c r="I9" s="173"/>
       <c r="J9" s="161" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K9" s="192" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L9" s="246" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M9" s="192" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="N9" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O9" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P9" s="229" t="s">
         <v>167</v>
@@ -7436,7 +7548,7 @@
         <v>145</v>
       </c>
       <c r="R9" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S9" s="229" t="s">
         <v>186</v>
@@ -13254,22 +13366,22 @@
       <c r="H10" s="236"/>
       <c r="I10" s="173"/>
       <c r="J10" s="240" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K10" s="223" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L10" s="246" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M10" s="223" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="N10" s="173" t="s">
         <v>158</v>
       </c>
       <c r="O10" s="229" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P10" s="229" t="s">
         <v>167</v>
@@ -13278,7 +13390,7 @@
         <v>145</v>
       </c>
       <c r="R10" s="229" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="S10" s="229" t="s">
         <v>186</v>
@@ -13314,23 +13426,23 @@
       </c>
       <c r="H11" s="180"/>
       <c r="I11" s="248" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J11" s="178"/>
       <c r="K11" s="198" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L11" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M11" s="198" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="N11" s="250" t="s">
         <v>158</v>
       </c>
       <c r="O11" s="229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P11" s="229" t="s">
         <v>167</v>
@@ -13376,22 +13488,22 @@
       <c r="H12" s="180"/>
       <c r="I12" s="173"/>
       <c r="J12" s="162" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="K12" s="198" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L12" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M12" s="198" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N12" s="250" t="s">
         <v>158</v>
       </c>
       <c r="O12" s="229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P12" s="229" t="s">
         <v>167</v>
@@ -13437,22 +13549,22 @@
       <c r="H13" s="180"/>
       <c r="I13" s="173"/>
       <c r="J13" s="162" t="s">
-        <v>293</v>
+        <v>448</v>
       </c>
       <c r="K13" s="198" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L13" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M13" s="198" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="N13" s="250" t="s">
         <v>158</v>
       </c>
       <c r="O13" s="229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P13" s="229" t="s">
         <v>167</v>
@@ -13498,22 +13610,22 @@
       <c r="H14" s="180"/>
       <c r="I14" s="173"/>
       <c r="J14" s="162" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K14" s="198" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L14" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M14" s="198" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N14" s="250" t="s">
         <v>158</v>
       </c>
       <c r="O14" s="229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P14" s="229" t="s">
         <v>167</v>
@@ -13559,22 +13671,22 @@
       <c r="H15" s="180"/>
       <c r="I15" s="173"/>
       <c r="J15" s="162" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K15" s="198" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L15" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M15" s="198" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="N15" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O15" s="229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P15" s="229" t="s">
         <v>167</v>
@@ -13620,22 +13732,22 @@
       <c r="H16" s="180"/>
       <c r="I16" s="173"/>
       <c r="J16" s="162" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K16" s="198" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L16" s="246" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M16" s="198" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N16" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O16" s="229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P16" s="229" t="s">
         <v>167</v>
@@ -13681,22 +13793,22 @@
       <c r="H17" s="180"/>
       <c r="I17" s="173"/>
       <c r="J17" s="162" t="s">
-        <v>296</v>
+        <v>449</v>
       </c>
       <c r="K17" s="198" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L17" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M17" s="198" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N17" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O17" s="229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P17" s="229" t="s">
         <v>167</v>
@@ -13742,22 +13854,22 @@
       <c r="H18" s="180"/>
       <c r="I18" s="173"/>
       <c r="J18" s="162" t="s">
-        <v>297</v>
+        <v>451</v>
       </c>
       <c r="K18" s="198" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L18" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M18" s="198" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="N18" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O18" s="229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P18" s="229" t="s">
         <v>167</v>
@@ -13803,22 +13915,22 @@
       <c r="H19" s="180"/>
       <c r="I19" s="173"/>
       <c r="J19" s="162" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="K19" s="198" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L19" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M19" s="198" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="N19" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O19" s="229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P19" s="229" t="s">
         <v>167</v>
@@ -13864,22 +13976,22 @@
       <c r="H20" s="180"/>
       <c r="I20" s="173"/>
       <c r="J20" s="162" t="s">
-        <v>299</v>
+        <v>452</v>
       </c>
       <c r="K20" s="198" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="L20" s="182" t="s">
-        <v>334</v>
-      </c>
       <c r="M20" s="198" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="N20" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O20" s="229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P20" s="229" t="s">
         <v>167</v>
@@ -13925,22 +14037,22 @@
       <c r="H21" s="180"/>
       <c r="I21" s="173"/>
       <c r="J21" s="162" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="K21" s="198" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L21" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M21" s="198" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="N21" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O21" s="229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P21" s="229" t="s">
         <v>167</v>
@@ -13986,22 +14098,22 @@
       <c r="H22" s="180"/>
       <c r="I22" s="173"/>
       <c r="J22" s="162" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K22" s="199" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L22" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M22" s="249" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="N22" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O22" s="229" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P22" s="229" t="s">
         <v>167</v>
@@ -14047,13 +14159,13 @@
       <c r="H23" s="180"/>
       <c r="I23" s="173"/>
       <c r="J23" s="162" t="s">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="K23" s="198" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L23" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M23" s="198" t="s">
         <v>188</v>
@@ -14062,7 +14174,7 @@
         <v>158</v>
       </c>
       <c r="O23" s="229" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P23" s="229" t="s">
         <v>167</v>
@@ -14107,23 +14219,23 @@
       </c>
       <c r="H24" s="180"/>
       <c r="I24" s="162" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J24" s="184"/>
       <c r="K24" s="198" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L24" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M24" s="198" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N24" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O24" s="229" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P24" s="229" t="s">
         <v>167</v>
@@ -14169,22 +14281,22 @@
       <c r="H25" s="180"/>
       <c r="I25" s="173"/>
       <c r="J25" s="162" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K25" s="198" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L25" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M25" s="198" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N25" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O25" s="229" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P25" s="229" t="s">
         <v>167</v>
@@ -14229,23 +14341,23 @@
       </c>
       <c r="H26" s="183"/>
       <c r="I26" s="251" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J26" s="184"/>
       <c r="K26" s="200" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L26" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M26" s="200" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="N26" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O26" s="229" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P26" s="229" t="s">
         <v>167</v>
@@ -14291,22 +14403,22 @@
       <c r="H27" s="222"/>
       <c r="I27" s="173"/>
       <c r="J27" s="241" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="K27" s="217" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L27" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M27" s="217" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N27" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O27" s="229" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P27" s="229" t="s">
         <v>167</v>
@@ -14352,22 +14464,22 @@
       <c r="H28" s="151"/>
       <c r="I28" s="173"/>
       <c r="J28" s="162" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K28" s="200" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L28" s="182" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M28" s="200" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="N28" s="182" t="s">
         <v>158</v>
       </c>
       <c r="O28" s="229" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P28" s="229" t="s">
         <v>167</v>
@@ -14396,22 +14508,22 @@
         <v>42935</v>
       </c>
       <c r="C29" s="198" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D29" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E29" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="168" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G29" s="190" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H29" s="151"/>
-      <c r="I29" s="152"/>
+      <c r="I29" s="173"/>
       <c r="J29" s="152"/>
       <c r="K29" s="152"/>
       <c r="L29" s="181"/>
@@ -14433,22 +14545,22 @@
         <v>42935</v>
       </c>
       <c r="C30" s="198" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D30" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E30" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="168" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G30" s="190" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H30" s="151"/>
-      <c r="I30" s="152"/>
+      <c r="I30" s="173"/>
       <c r="J30" s="152"/>
       <c r="K30" s="152"/>
       <c r="L30" s="181"/>
@@ -14470,22 +14582,22 @@
         <v>42935</v>
       </c>
       <c r="C31" s="198" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D31" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E31" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="168" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G31" s="190" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H31" s="151"/>
-      <c r="I31" s="152"/>
+      <c r="I31" s="173"/>
       <c r="J31" s="152"/>
       <c r="K31" s="152"/>
       <c r="L31" s="181"/>
@@ -14507,22 +14619,22 @@
         <v>42935</v>
       </c>
       <c r="C32" s="198" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D32" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E32" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="168" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G32" s="190" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H32" s="156"/>
-      <c r="I32" s="152"/>
+      <c r="I32" s="173"/>
       <c r="J32" s="152"/>
       <c r="K32" s="152"/>
       <c r="L32" s="181"/>
@@ -14544,22 +14656,22 @@
         <v>42935</v>
       </c>
       <c r="C33" s="198" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D33" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E33" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="168" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G33" s="190" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H33" s="156"/>
-      <c r="I33" s="152"/>
+      <c r="I33" s="173"/>
       <c r="J33" s="152"/>
       <c r="K33" s="152"/>
       <c r="L33" s="181"/>
@@ -14581,22 +14693,22 @@
         <v>42935</v>
       </c>
       <c r="C34" s="198" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D34" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E34" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="168" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G34" s="190" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H34" s="155"/>
-      <c r="I34" s="152"/>
+      <c r="I34" s="173"/>
       <c r="J34" s="152"/>
       <c r="K34" s="152"/>
       <c r="L34" s="181"/>
@@ -14618,22 +14730,22 @@
         <v>42935</v>
       </c>
       <c r="C35" s="198" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D35" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E35" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="168" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G35" s="190" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H35" s="155"/>
-      <c r="I35" s="152"/>
+      <c r="I35" s="173"/>
       <c r="J35" s="152"/>
       <c r="K35" s="152"/>
       <c r="L35" s="181"/>
@@ -14655,22 +14767,22 @@
         <v>42935</v>
       </c>
       <c r="C36" s="198" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D36" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E36" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F36" s="168" t="s">
+        <v>423</v>
+      </c>
+      <c r="G36" s="190" t="s">
         <v>435</v>
       </c>
-      <c r="G36" s="190" t="s">
-        <v>447</v>
-      </c>
       <c r="H36" s="155"/>
-      <c r="I36" s="152"/>
+      <c r="I36" s="173"/>
       <c r="J36" s="152"/>
       <c r="K36" s="152"/>
       <c r="L36" s="181"/>
@@ -14692,22 +14804,22 @@
         <v>42935</v>
       </c>
       <c r="C37" s="198" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D37" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E37" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="168" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G37" s="190" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H37" s="157"/>
-      <c r="I37" s="152"/>
+      <c r="I37" s="173"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152"/>
       <c r="L37" s="181"/>
@@ -14729,22 +14841,22 @@
         <v>42935</v>
       </c>
       <c r="C38" s="198" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="D38" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E38" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="168" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G38" s="190" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H38" s="156"/>
-      <c r="I38" s="152"/>
+      <c r="I38" s="173"/>
       <c r="J38" s="152"/>
       <c r="K38" s="152"/>
       <c r="L38" s="181"/>
@@ -14766,22 +14878,22 @@
         <v>42935</v>
       </c>
       <c r="C39" s="198" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D39" s="207" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E39" s="171" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="168" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G39" s="190" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H39" s="156"/>
-      <c r="I39" s="152"/>
+      <c r="I39" s="173"/>
       <c r="J39" s="152"/>
       <c r="K39" s="152"/>
       <c r="L39" s="181"/>
@@ -18111,151 +18223,176 @@
   <autoFilter ref="A1:U149"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F123 H123 H149 J5 J24 J26">
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
       <formula>$E5&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A149">
-    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Vigente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
       <formula>"No Vigente"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
       <formula>$E11&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="42" stopIfTrue="1">
       <formula>$E5&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="43" stopIfTrue="1">
       <formula>$E7&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N9">
-    <cfRule type="expression" dxfId="27" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
       <formula>$E14&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N23">
-    <cfRule type="expression" dxfId="26" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="49" stopIfTrue="1">
       <formula>$E18&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="25" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
       <formula>$E32&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>$E36&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>$E33&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="27" stopIfTrue="1">
       <formula>$E35&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>$E2&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="23" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="19" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="50" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$E3&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 I13">
-    <cfRule type="expression" dxfId="17" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="52" stopIfTrue="1">
       <formula>$E3&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>$E3&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12 I19:I21">
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="12" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="54" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="11" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="56" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="10" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="58" stopIfTrue="1">
       <formula>$E3&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I18">
-    <cfRule type="expression" dxfId="9" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="60" stopIfTrue="1">
       <formula>$E3&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="8" priority="62" stopIfTrue="1">
+  <conditionalFormatting sqref="I22 I30">
+    <cfRule type="expression" dxfId="14" priority="62" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="7" priority="64" stopIfTrue="1">
+  <conditionalFormatting sqref="I23 I31">
+    <cfRule type="expression" dxfId="13" priority="64" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="6" priority="66" stopIfTrue="1">
+  <conditionalFormatting sqref="I25 I33">
+    <cfRule type="expression" dxfId="12" priority="66" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="5" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="68" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="4" priority="70" stopIfTrue="1">
+  <conditionalFormatting sqref="I35:I37">
+    <cfRule type="expression" dxfId="10" priority="70" stopIfTrue="1">
+      <formula>$E11&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="9" priority="76" stopIfTrue="1">
       <formula>$E4&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28 I34">
+    <cfRule type="expression" dxfId="8" priority="78" stopIfTrue="1">
+      <formula>$E6&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="7" priority="80" stopIfTrue="1">
+      <formula>$E12&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="6" priority="82" stopIfTrue="1">
+      <formula>$E12&lt;&gt;"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="1" priority="84" stopIfTrue="1">
+      <formula>$E12&lt;&gt;"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -18280,34 +18417,22 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J28" r:id="rId3"/>
-    <hyperlink ref="J27" r:id="rId4"/>
-    <hyperlink ref="J15" r:id="rId5"/>
-    <hyperlink ref="J16" r:id="rId6"/>
-    <hyperlink ref="J9" r:id="rId7"/>
-    <hyperlink ref="J10" r:id="rId8"/>
-    <hyperlink ref="J2" r:id="rId9"/>
-    <hyperlink ref="J3" r:id="rId10"/>
-    <hyperlink ref="J6" r:id="rId11"/>
-    <hyperlink ref="J7" r:id="rId12"/>
-    <hyperlink ref="I11" r:id="rId13"/>
-    <hyperlink ref="J8" r:id="rId14"/>
-    <hyperlink ref="J12" r:id="rId15"/>
-    <hyperlink ref="J13" r:id="rId16"/>
-    <hyperlink ref="J14" r:id="rId17"/>
-    <hyperlink ref="J18" r:id="rId18"/>
-    <hyperlink ref="J19" r:id="rId19"/>
-    <hyperlink ref="J20" r:id="rId20"/>
-    <hyperlink ref="J17" r:id="rId21"/>
-    <hyperlink ref="J21" r:id="rId22"/>
-    <hyperlink ref="J22" r:id="rId23"/>
-    <hyperlink ref="J23" r:id="rId24"/>
-    <hyperlink ref="J25" r:id="rId25"/>
-    <hyperlink ref="I26" r:id="rId26"/>
+    <hyperlink ref="J28" r:id="rId2"/>
+    <hyperlink ref="J15" r:id="rId3"/>
+    <hyperlink ref="J16" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
+    <hyperlink ref="J6" r:id="rId7"/>
+    <hyperlink ref="J7" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="J8" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J22" r:id="rId12"/>
+    <hyperlink ref="J25" r:id="rId13"/>
+    <hyperlink ref="I26" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.77" right="0.18" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPág  &amp;P de &amp;N</oddFooter>
   </headerFooter>
@@ -18399,7 +18524,7 @@
         <v>184</v>
       </c>
       <c r="H2" s="167" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I2" s="166"/>
       <c r="J2" s="123"/>
@@ -18408,7 +18533,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="161" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B3" s="166" t="s">
         <v>193</v>
@@ -18429,7 +18554,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="167" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I3" s="137"/>
       <c r="J3" s="123"/>
@@ -18438,7 +18563,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="161" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B4" s="166" t="s">
         <v>194</v>
@@ -18459,7 +18584,7 @@
         <v>151</v>
       </c>
       <c r="H4" s="167" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I4" s="137"/>
       <c r="J4" s="123"/>
@@ -18468,7 +18593,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="161" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B5" s="166" t="s">
         <v>195</v>
@@ -18489,7 +18614,7 @@
         <v>139</v>
       </c>
       <c r="H5" s="167" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I5" s="137"/>
       <c r="J5" s="123"/>
@@ -22615,12 +22740,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A7:L299 J3:L5">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:L6 A6">
-    <cfRule type="cellIs" dxfId="2" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22641,8 +22766,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -22703,7 +22828,7 @@
     <row r="2" spans="1:12">
       <c r="A2" s="161" t="str">
         <f>+Items!J2</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/PPBR%20(Plan%20de%20Proyecto)/PPBR_V2.0_2017.docx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/PPBR%20(Plan%20de%20Proyecto)/PPBR_V2.1_2017.docx</v>
       </c>
       <c r="B2" s="166" t="s">
         <v>189</v>
@@ -22721,10 +22846,10 @@
         <v>190</v>
       </c>
       <c r="G2" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H2" s="254" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="I2" s="166"/>
       <c r="J2" s="123"/>
@@ -22734,7 +22859,7 @@
     <row r="3" spans="1:12">
       <c r="A3" s="161" t="str">
         <f>+Items!J3</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/CPROY%20(Cronograma%20de%20Proyecto)/CPROY_V2.0_2017.mpp</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/CPROY%20(Cronograma%20de%20Proyecto)/CPROY_V3.0_2017.mpp</v>
       </c>
       <c r="B3" s="166" t="s">
         <v>193</v>
@@ -22752,10 +22877,10 @@
         <v>190</v>
       </c>
       <c r="G3" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H3" s="254" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="I3" s="166"/>
       <c r="J3" s="123"/>
@@ -22765,7 +22890,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="161" t="str">
         <f>+Items!J5</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/REGRI%20(Registro%20de%20Riesgos)/REGRI_V2.0_2017.xls</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/REGRI%20(Registro%20de%20Riesgos)/REGRI_V3.0_2017.xls</v>
       </c>
       <c r="B4" s="166" t="s">
         <v>194</v>
@@ -22783,10 +22908,10 @@
         <v>190</v>
       </c>
       <c r="G4" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H4" s="254" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I4" s="166"/>
       <c r="J4" s="123"/>
@@ -22814,10 +22939,10 @@
         <v>190</v>
       </c>
       <c r="G5" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H5" s="254" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="I5" s="166"/>
       <c r="J5" s="123"/>
@@ -22830,7 +22955,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/ARINTBR%20(Reuniones%20Internas)/ARINTBR_08_05_2017.docx</v>
       </c>
       <c r="B6" s="166" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C6" s="166" t="s">
         <v>190</v>
@@ -22845,10 +22970,10 @@
         <v>190</v>
       </c>
       <c r="G6" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H6" s="254" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="I6" s="167"/>
       <c r="J6" s="123"/>
@@ -22861,7 +22986,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/AREXTBR%20(Reuniones%20Externas)/AREXTBR_24_05_2017.docx</v>
       </c>
       <c r="B7" s="166" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C7" s="166" t="s">
         <v>190</v>
@@ -22876,10 +23001,10 @@
         <v>190</v>
       </c>
       <c r="G7" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H7" s="254" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I7" s="167"/>
       <c r="J7" s="123"/>
@@ -22892,7 +23017,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/AREBR%20(Revisi%C3%B3n%20de%20PP)/AREBR_16_05_2017.docx</v>
       </c>
       <c r="B8" s="166" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C8" s="166" t="s">
         <v>190</v>
@@ -22907,10 +23032,10 @@
         <v>190</v>
       </c>
       <c r="G8" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H8" s="254" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I8" s="167"/>
       <c r="J8" s="123"/>
@@ -22923,7 +23048,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PP-PMC/ACENT%20(Aceptacion%20de%20Entregables)/ACENT_24_05_2017.docx</v>
       </c>
       <c r="B9" s="166" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C9" s="166" t="s">
         <v>190</v>
@@ -22938,10 +23063,10 @@
         <v>190</v>
       </c>
       <c r="G9" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H9" s="254" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I9" s="167"/>
       <c r="J9" s="123"/>
@@ -22951,10 +23076,10 @@
     <row r="10" spans="1:12">
       <c r="A10" s="161" t="str">
         <f>+Items!J12</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/LMREQM%20(Lista%20Maestra%20de%20Requerimientos)/LMREQM_V1.1_2017.xls</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/LMREQM%20(Lista%20Maestra%20de%20Requerimientos)/LMREQM_V1.2_2017.xls</v>
       </c>
       <c r="B10" s="166" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C10" s="166" t="s">
         <v>190</v>
@@ -22972,7 +23097,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="254" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="I10" s="167"/>
       <c r="J10" s="123"/>
@@ -22982,10 +23107,10 @@
     <row r="11" spans="1:12">
       <c r="A11" s="161" t="str">
         <f>+Items!J13</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/MTREQM%20(Matriz%20de%20Trazabilidad)/MTREQM_1.1_2017.xls</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/MTREQM%20(Matriz%20de%20Trazabilidad)/MTREQM_V1.1_2017.xls</v>
       </c>
       <c r="B11" s="166" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C11" s="166" t="s">
         <v>190</v>
@@ -23003,7 +23128,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="254" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I11" s="167"/>
       <c r="J11" s="123"/>
@@ -23015,7 +23140,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/RCREQM%20(Registro%20de%20Cambio)/RCREQM_V1.1_2017.xls</v>
       </c>
       <c r="B12" s="166" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C12" s="166" t="s">
         <v>190</v>
@@ -23033,7 +23158,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="254" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="I12" s="167"/>
       <c r="J12" s="123"/>
@@ -23045,7 +23170,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/SOLCREQ%20(Solicitud%20de%20cambio)/SOLCREQ_V1.1_2017.xls</v>
       </c>
       <c r="B13" s="166" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C13" s="166" t="s">
         <v>190</v>
@@ -23063,7 +23188,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="254" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="I13" s="166"/>
       <c r="J13" s="123"/>
@@ -23075,7 +23200,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/REQM/SOLCREQ%20(Solicitud%20de%20cambio)/ASCR_19_07_2017.doc</v>
       </c>
       <c r="B14" s="166" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C14" s="166" t="s">
         <v>190</v>
@@ -23093,7 +23218,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="254" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="I14" s="166"/>
       <c r="J14" s="123"/>
@@ -23102,10 +23227,10 @@
     <row r="15" spans="1:12">
       <c r="A15" s="161" t="str">
         <f>+Items!J17</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/TMETR%20(Tablero%20de%20Control)/TMETR_V2.0_2017.xlsx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/TMETR%20(Tablero%20de%20Control)/TMETR_V3.0_2017.xlsx</v>
       </c>
       <c r="B15" s="166" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C15" s="166" t="s">
         <v>190</v>
@@ -23123,7 +23248,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="254" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I15" s="166"/>
       <c r="J15" s="123"/>
@@ -23132,10 +23257,10 @@
     <row r="16" spans="1:12">
       <c r="A16" s="161" t="str">
         <f>+Items!J18</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMEXRI%20(Ficha%20PP-PMC)/FMEXRI_V2.0_2017.docx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMEXRI%20(Ficha%20PP-PMC)/FMEXRI_V3.0_2017.docx</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C16" s="166" t="s">
         <v>190</v>
@@ -23153,10 +23278,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="255" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="I16" s="255" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="J16" s="123"/>
       <c r="K16" s="123"/>
@@ -23164,10 +23289,10 @@
     <row r="17" spans="1:12">
       <c r="A17" s="161" t="str">
         <f>+Items!J19</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMVREQM%20(Ficha%20REQM)/FMVREQM_V2.0_2017.docx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMVREQM%20(Ficha%20REQM)/FMVREQM_V3.0_2017.docx</v>
       </c>
       <c r="B17" s="166" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C17" s="166" t="s">
         <v>190</v>
@@ -23185,10 +23310,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="255" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="I17" s="255" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="J17" s="123"/>
       <c r="K17" s="123"/>
@@ -23196,10 +23321,10 @@
     <row r="18" spans="1:12">
       <c r="A18" s="161" t="str">
         <f>+Items!J20</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMNCNPRO%20(Ficha%20PPQA)/FMNCONPRO_V2.0_2017.docx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMNCNPRO%20(Ficha%20PPQA)/FMNCONPRO_V3.0_2017.docx</v>
       </c>
       <c r="B18" s="166" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C18" s="166" t="s">
         <v>190</v>
@@ -23217,10 +23342,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="255" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="I18" s="255" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="J18" s="123"/>
       <c r="K18" s="123"/>
@@ -23228,10 +23353,10 @@
     <row r="19" spans="1:12">
       <c r="A19" s="161" t="str">
         <f>+Items!J21</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMICIC%20(Ficha%20CM)/FMICIC_V1.0_2017.docx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/MA/Fichas%20Metricas/FMICIC%20(Ficha%20CM)/FMICIC_V2.0_2017.docx</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C19" s="166" t="s">
         <v>190</v>
@@ -23249,10 +23374,10 @@
         <v>3</v>
       </c>
       <c r="H19" s="255" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I19" s="255" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="J19" s="123"/>
       <c r="K19" s="123"/>
@@ -23263,7 +23388,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/CHKQA%20(ChekList)/CHKQA_V2.0_2017.xls</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C20" s="166" t="s">
         <v>190</v>
@@ -23281,7 +23406,7 @@
         <v>151</v>
       </c>
       <c r="H20" s="255" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="I20" s="166"/>
       <c r="J20" s="123"/>
@@ -23290,10 +23415,10 @@
     <row r="21" spans="1:12">
       <c r="A21" s="161" t="str">
         <f>+Items!J23</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/HGQA%20(Herramienta)/HGQA_V2.0_2017.xlsx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/HGQA%20(Herramienta)/HGQA_V3.0_2017.xlsx</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C21" s="166" t="s">
         <v>190</v>
@@ -23311,7 +23436,7 @@
         <v>151</v>
       </c>
       <c r="H21" s="255" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="I21" s="166"/>
       <c r="J21" s="123"/>
@@ -23323,7 +23448,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/PPQA/MSPQA%20(Matriz%20de%20seguimiento)/MSPQA_V1.0_2017.xlsm</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C22" s="166" t="s">
         <v>190</v>
@@ -23341,7 +23466,7 @@
         <v>151</v>
       </c>
       <c r="H22" s="255" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="I22" s="166"/>
       <c r="J22" s="123"/>
@@ -23350,10 +23475,10 @@
     <row r="23" spans="1:12">
       <c r="A23" s="161" t="str">
         <f>+Items!J27</f>
-        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/CM/REGITCON%20(Registro%20de%20Items%20de%20Configuracion)/REGITCON_V1.0_2017.xlsx</v>
+        <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/CM/REGITCON%20(Registro%20de%20Items%20de%20Configuracion)/REGITCON_V2.0_2017.xlsx</v>
       </c>
       <c r="B23" s="166" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C23" s="166" t="s">
         <v>190</v>
@@ -23371,7 +23496,7 @@
         <v>139</v>
       </c>
       <c r="H23" s="255" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="I23" s="166"/>
       <c r="J23" s="123"/>
@@ -23383,7 +23508,7 @@
         <v>https://github.com/Ernesto152/Matricula.TE/blob/master/Matricula.TE/CM/SOLACC%20(Solicitud%20de%20Acceso)/SOLACC_V2.0_2017.xls</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C24" s="166" t="s">
         <v>190</v>
@@ -23401,7 +23526,7 @@
         <v>139</v>
       </c>
       <c r="H24" s="255" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="I24" s="166"/>
       <c r="J24" s="123"/>
@@ -27269,12 +27394,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A28:A296 H3:L9 B25:F300 G10:L10 J12:K24 H11:I24 H25:L300 G25:G299">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K11">
-    <cfRule type="cellIs" dxfId="0" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="75" stopIfTrue="1" operator="equal">
       <formula>K10</formula>
     </cfRule>
   </conditionalFormatting>
